--- a/data/fruit_outliers.xlsx
+++ b/data/fruit_outliers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -466,7 +466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Purple</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -475,58 +475,58 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10.90219764355227</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>grape</t>
+          <t>apple</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tiny</t>
+          <t>Small</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>grape</t>
+          <t>apple</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10.90219764355227</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>26</v>
+        <v>175</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -540,56 +540,10 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>apple</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>apple</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
         <v>8.300753027807943</v>
       </c>
     </row>
